--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Podxl2</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Podxl2</t>
-  </si>
-  <si>
-    <t>Sell</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>3.676843499999999</v>
+        <v>0.2193725</v>
       </c>
       <c r="H2">
-        <v>7.353686999999999</v>
+        <v>0.438745</v>
       </c>
       <c r="I2">
-        <v>0.4485815733707618</v>
+        <v>0.1087581712091675</v>
       </c>
       <c r="J2">
-        <v>0.4153447909513562</v>
+        <v>0.09364967897271267</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N2">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O2">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P2">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q2">
-        <v>0.18941075448075</v>
+        <v>0.015166975905</v>
       </c>
       <c r="R2">
-        <v>0.7576430179229998</v>
+        <v>0.06066790362</v>
       </c>
       <c r="S2">
-        <v>0.0006599288443323311</v>
+        <v>2.169938170301143E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004075549878660094</v>
+        <v>1.245745655920906E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>3.676843499999999</v>
+        <v>0.2193725</v>
       </c>
       <c r="H3">
-        <v>7.353686999999999</v>
+        <v>0.438745</v>
       </c>
       <c r="I3">
-        <v>0.4485815733707618</v>
+        <v>0.1087581712091675</v>
       </c>
       <c r="J3">
-        <v>0.4153447909513562</v>
+        <v>0.09364967897271267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N3">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O3">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P3">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q3">
-        <v>62.26327930920348</v>
+        <v>16.797917867305</v>
       </c>
       <c r="R3">
-        <v>373.5796758552209</v>
+        <v>100.78750720383</v>
       </c>
       <c r="S3">
-        <v>0.216932423248648</v>
+        <v>0.02403276921527402</v>
       </c>
       <c r="T3">
-        <v>0.2009577817763722</v>
+        <v>0.02069555593295252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>3.676843499999999</v>
+        <v>0.2193725</v>
       </c>
       <c r="H4">
-        <v>7.353686999999999</v>
+        <v>0.438745</v>
       </c>
       <c r="I4">
-        <v>0.4485815733707618</v>
+        <v>0.1087581712091675</v>
       </c>
       <c r="J4">
-        <v>0.4153447909513562</v>
+        <v>0.09364967897271267</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N4">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O4">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P4">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q4">
-        <v>0.37329766441</v>
+        <v>58.64781999740834</v>
       </c>
       <c r="R4">
-        <v>2.23978598646</v>
+        <v>351.88691998445</v>
       </c>
       <c r="S4">
-        <v>0.001300611979195123</v>
+        <v>0.08390739460156545</v>
       </c>
       <c r="T4">
-        <v>0.001204836484914239</v>
+        <v>0.07225593366333237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>3.676843499999999</v>
+        <v>0.2193725</v>
       </c>
       <c r="H5">
-        <v>7.353686999999999</v>
+        <v>0.438745</v>
       </c>
       <c r="I5">
-        <v>0.4485815733707618</v>
+        <v>0.1087581712091675</v>
       </c>
       <c r="J5">
-        <v>0.4153447909513562</v>
+        <v>0.09364967897271267</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N5">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O5">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P5">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q5">
-        <v>65.9245207366185</v>
+        <v>0.5565865689358334</v>
       </c>
       <c r="R5">
-        <v>395.547124419711</v>
+        <v>3.339519413615</v>
       </c>
       <c r="S5">
-        <v>0.2296886092985864</v>
+        <v>0.0007963080106250179</v>
       </c>
       <c r="T5">
-        <v>0.2127746177022038</v>
+        <v>0.0006857319198685736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -797,10 +797,10 @@
         <v>1.71373</v>
       </c>
       <c r="I6">
-        <v>0.06969272237021382</v>
+        <v>0.2832049607346509</v>
       </c>
       <c r="J6">
-        <v>0.09679346273468911</v>
+        <v>0.3657939448789317</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N6">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O6">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P6">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q6">
-        <v>0.029427314695</v>
+        <v>0.03949462158</v>
       </c>
       <c r="R6">
-        <v>0.17656388817</v>
+        <v>0.23696772948</v>
       </c>
       <c r="S6">
-        <v>0.0001025281475263267</v>
+        <v>5.650492716863139E-05</v>
       </c>
       <c r="T6">
-        <v>9.497809865386116E-05</v>
+        <v>4.865859902497657E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.71373</v>
       </c>
       <c r="I7">
-        <v>0.06969272237021382</v>
+        <v>0.2832049607346509</v>
       </c>
       <c r="J7">
-        <v>0.09679346273468911</v>
+        <v>0.3657939448789317</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N7">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O7">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P7">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q7">
-        <v>9.673374245287777</v>
+        <v>43.74157469864667</v>
       </c>
       <c r="R7">
-        <v>87.06036820758999</v>
+        <v>393.67417228782</v>
       </c>
       <c r="S7">
-        <v>0.03370314797587528</v>
+        <v>0.06258103999254168</v>
       </c>
       <c r="T7">
-        <v>0.04683193333679044</v>
+        <v>0.08083646553004302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.71373</v>
       </c>
       <c r="I8">
-        <v>0.06969272237021382</v>
+        <v>0.2832049607346509</v>
       </c>
       <c r="J8">
-        <v>0.09679346273468911</v>
+        <v>0.3657939448789317</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N8">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O8">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P8">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q8">
-        <v>0.05799643148888889</v>
+        <v>152.7182130305889</v>
       </c>
       <c r="R8">
-        <v>0.5219678834</v>
+        <v>1374.4639172753</v>
       </c>
       <c r="S8">
-        <v>0.000202066234901944</v>
+        <v>0.2184938393988015</v>
       </c>
       <c r="T8">
-        <v>0.0002807794823592681</v>
+        <v>0.2822303643274854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>1.71373</v>
       </c>
       <c r="I9">
-        <v>0.06969272237021382</v>
+        <v>0.2832049607346509</v>
       </c>
       <c r="J9">
-        <v>0.09679346273468911</v>
+        <v>0.3657939448789317</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N9">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O9">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P9">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q9">
-        <v>10.24219360274333</v>
+        <v>1.449344685078889</v>
       </c>
       <c r="R9">
-        <v>92.17974242469001</v>
+        <v>13.04410216571</v>
       </c>
       <c r="S9">
-        <v>0.03568498001191026</v>
+        <v>0.002073576416139081</v>
       </c>
       <c r="T9">
-        <v>0.04958577181688556</v>
+        <v>0.002678456422378308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01498566666666667</v>
+        <v>1.146868</v>
       </c>
       <c r="H10">
-        <v>0.044957</v>
+        <v>2.293736</v>
       </c>
       <c r="I10">
-        <v>0.001828278503380172</v>
+        <v>0.5685820524373635</v>
       </c>
       <c r="J10">
-        <v>0.00253922362575401</v>
+        <v>0.4895956422253338</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N10">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O10">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P10">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q10">
-        <v>0.0007719791254999999</v>
+        <v>0.079292159784</v>
       </c>
       <c r="R10">
-        <v>0.004631874752999999</v>
+        <v>0.317168639136</v>
       </c>
       <c r="S10">
-        <v>2.689664024286829E-06</v>
+        <v>0.0001134432369370332</v>
       </c>
       <c r="T10">
-        <v>2.491600416157525E-06</v>
+        <v>6.512693381871921E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01498566666666667</v>
+        <v>1.146868</v>
       </c>
       <c r="H11">
-        <v>0.044957</v>
+        <v>2.293736</v>
       </c>
       <c r="I11">
-        <v>0.001828278503380172</v>
+        <v>0.5685820524373635</v>
       </c>
       <c r="J11">
-        <v>0.00253922362575401</v>
+        <v>0.4895956422253338</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N11">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O11">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P11">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q11">
-        <v>0.2537656958478888</v>
+        <v>87.818639385704</v>
       </c>
       <c r="R11">
-        <v>2.283891262631</v>
+        <v>526.911836314224</v>
       </c>
       <c r="S11">
-        <v>0.0008841488586600135</v>
+        <v>0.1256420652742841</v>
       </c>
       <c r="T11">
-        <v>0.001228561807882273</v>
+        <v>0.1081952881136578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01498566666666667</v>
+        <v>1.146868</v>
       </c>
       <c r="H12">
-        <v>0.044957</v>
+        <v>2.293736</v>
       </c>
       <c r="I12">
-        <v>0.001828278503380172</v>
+        <v>0.5685820524373635</v>
       </c>
       <c r="J12">
-        <v>0.00253922362575401</v>
+        <v>0.4895956422253338</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N12">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O12">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P12">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q12">
-        <v>0.001521444784444444</v>
+        <v>306.6077472098267</v>
       </c>
       <c r="R12">
-        <v>0.01369300306</v>
+        <v>1839.64648325896</v>
       </c>
       <c r="S12">
-        <v>5.30088854281987E-06</v>
+        <v>0.4386634871367567</v>
       </c>
       <c r="T12">
-        <v>7.365806275449236E-06</v>
+        <v>0.3777502564295829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01498566666666667</v>
+        <v>1.146868</v>
       </c>
       <c r="H13">
-        <v>0.044957</v>
+        <v>2.293736</v>
       </c>
       <c r="I13">
-        <v>0.001828278503380172</v>
+        <v>0.5685820524373635</v>
       </c>
       <c r="J13">
-        <v>0.00253922362575401</v>
+        <v>0.4895956422253338</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N13">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O13">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P13">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q13">
-        <v>0.2686877733356667</v>
+        <v>2.909805582478667</v>
       </c>
       <c r="R13">
-        <v>2.418189960021</v>
+        <v>17.458833494872</v>
       </c>
       <c r="S13">
-        <v>0.0009361390921530519</v>
+        <v>0.004163056789385602</v>
       </c>
       <c r="T13">
-        <v>0.00130080441118013</v>
+        <v>0.003584970748274425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.207937</v>
+        <v>0.04991066666666667</v>
       </c>
       <c r="H14">
-        <v>6.415874</v>
+        <v>0.149732</v>
       </c>
       <c r="I14">
-        <v>0.3913741302109491</v>
+        <v>0.0247441809274044</v>
       </c>
       <c r="J14">
-        <v>0.3623760224361252</v>
+        <v>0.03196014480379768</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N14">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O14">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P14">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q14">
-        <v>0.1652552705865</v>
+        <v>0.003450723672</v>
       </c>
       <c r="R14">
-        <v>0.661021082346</v>
+        <v>0.020704342032</v>
       </c>
       <c r="S14">
-        <v>0.0005757683613950187</v>
+        <v>4.93694791759117E-06</v>
       </c>
       <c r="T14">
-        <v>0.0003555796500748326</v>
+        <v>4.251398615422379E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.207937</v>
+        <v>0.04991066666666667</v>
       </c>
       <c r="H15">
-        <v>6.415874</v>
+        <v>0.149732</v>
       </c>
       <c r="I15">
-        <v>0.3913741302109491</v>
+        <v>0.0247441809274044</v>
       </c>
       <c r="J15">
-        <v>0.3623760224361252</v>
+        <v>0.03196014480379768</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N15">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O15">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P15">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q15">
-        <v>54.32286618599032</v>
+        <v>3.821788416365334</v>
       </c>
       <c r="R15">
-        <v>325.937197115942</v>
+        <v>34.396095747288</v>
       </c>
       <c r="S15">
-        <v>0.1892671110529991</v>
+        <v>0.005467829984982028</v>
       </c>
       <c r="T15">
-        <v>0.1753297097356334</v>
+        <v>0.00706284283798755</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.207937</v>
+        <v>0.04991066666666667</v>
       </c>
       <c r="H16">
-        <v>6.415874</v>
+        <v>0.149732</v>
       </c>
       <c r="I16">
-        <v>0.3913741302109491</v>
+        <v>0.0247441809274044</v>
       </c>
       <c r="J16">
-        <v>0.3623760224361252</v>
+        <v>0.03196014480379768</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N16">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O16">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P16">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q16">
-        <v>0.3256911504866666</v>
+        <v>13.34329414405778</v>
       </c>
       <c r="R16">
-        <v>1.95414690292</v>
+        <v>120.08964729652</v>
       </c>
       <c r="S16">
-        <v>0.001134745411574701</v>
+        <v>0.0190902414971211</v>
       </c>
       <c r="T16">
-        <v>0.001051184130873759</v>
+        <v>0.02465902850010389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.207937</v>
+        <v>0.04991066666666667</v>
       </c>
       <c r="H17">
-        <v>6.415874</v>
+        <v>0.149732</v>
       </c>
       <c r="I17">
-        <v>0.3913741302109491</v>
+        <v>0.0247441809274044</v>
       </c>
       <c r="J17">
-        <v>0.3623760224361252</v>
+        <v>0.03196014480379768</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N17">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O17">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P17">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q17">
-        <v>57.51719083998701</v>
+        <v>0.1266321289737778</v>
       </c>
       <c r="R17">
-        <v>345.103145039922</v>
+        <v>1.139689160764</v>
       </c>
       <c r="S17">
-        <v>0.2003965053849802</v>
+        <v>0.0001811724973836817</v>
       </c>
       <c r="T17">
-        <v>0.1856395489195432</v>
+        <v>0.0002340220670908187</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.6604483333333334</v>
+        <v>0.02967233333333333</v>
       </c>
       <c r="H18">
-        <v>1.981345</v>
+        <v>0.089017</v>
       </c>
       <c r="I18">
-        <v>0.08057589410502898</v>
+        <v>0.01471063469141371</v>
       </c>
       <c r="J18">
-        <v>0.1119086690564223</v>
+        <v>0.01900058911922407</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N18">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O18">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P18">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q18">
-        <v>0.0340226656675</v>
+        <v>0.002051485782</v>
       </c>
       <c r="R18">
-        <v>0.204135994005</v>
+        <v>0.012308914692</v>
       </c>
       <c r="S18">
-        <v>0.0001185388786218073</v>
+        <v>2.93505925774192E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001098098188613927</v>
+        <v>2.527494126499705E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.6604483333333334</v>
+        <v>0.02967233333333333</v>
       </c>
       <c r="H19">
-        <v>1.981345</v>
+        <v>0.089017</v>
       </c>
       <c r="I19">
-        <v>0.08057589410502898</v>
+        <v>0.01471063469141371</v>
       </c>
       <c r="J19">
-        <v>0.1119086690564223</v>
+        <v>0.01900058911922407</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N19">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O19">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P19">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q19">
-        <v>11.18396228929278</v>
+        <v>2.272087058608667</v>
       </c>
       <c r="R19">
-        <v>100.655660603635</v>
+        <v>20.448783527478</v>
       </c>
       <c r="S19">
-        <v>0.03896621038685243</v>
+        <v>0.003250673348203091</v>
       </c>
       <c r="T19">
-        <v>0.05414517862042624</v>
+        <v>0.00419892261446543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.6604483333333334</v>
+        <v>0.02967233333333333</v>
       </c>
       <c r="H20">
-        <v>1.981345</v>
+        <v>0.089017</v>
       </c>
       <c r="I20">
-        <v>0.08057589410502898</v>
+        <v>0.01471063469141371</v>
       </c>
       <c r="J20">
-        <v>0.1119086690564223</v>
+        <v>0.01900058911922407</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N20">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O20">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P20">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q20">
-        <v>0.06705311778888889</v>
+        <v>7.932706534485556</v>
       </c>
       <c r="R20">
-        <v>0.6034780601</v>
+        <v>71.39435881037001</v>
       </c>
       <c r="S20">
-        <v>0.0002336207711785359</v>
+        <v>0.01134931762982682</v>
       </c>
       <c r="T20">
-        <v>0.0003246258299003485</v>
+        <v>0.01466001081928878</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.6604483333333334</v>
+        <v>0.02967233333333333</v>
       </c>
       <c r="H21">
-        <v>1.981345</v>
+        <v>0.089017</v>
       </c>
       <c r="I21">
-        <v>0.08057589410502898</v>
+        <v>0.01471063469141371</v>
       </c>
       <c r="J21">
-        <v>0.1119086690564223</v>
+        <v>0.01900058911922407</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,276 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N21">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O21">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P21">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q21">
-        <v>11.84160812019834</v>
+        <v>0.07528392210655556</v>
       </c>
       <c r="R21">
-        <v>106.574473081785</v>
+        <v>0.677555298959</v>
       </c>
       <c r="S21">
-        <v>0.0412575240683762</v>
+        <v>0.0001077086541260599</v>
       </c>
       <c r="T21">
-        <v>0.05732905478723436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.06514166666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.195425</v>
-      </c>
-      <c r="I22">
-        <v>0.007947401439666128</v>
-      </c>
-      <c r="J22">
-        <v>0.01103783119565312</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.0515145</v>
-      </c>
-      <c r="N22">
-        <v>0.103029</v>
-      </c>
-      <c r="O22">
-        <v>0.001471145681204534</v>
-      </c>
-      <c r="P22">
-        <v>0.0009812449722373931</v>
-      </c>
-      <c r="Q22">
-        <v>0.0033557403875</v>
-      </c>
-      <c r="R22">
-        <v>0.020134442325</v>
-      </c>
-      <c r="S22">
-        <v>1.169178530476352E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.083081636513968E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.06514166666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.195425</v>
-      </c>
-      <c r="I23">
-        <v>0.007947401439666128</v>
-      </c>
-      <c r="J23">
-        <v>0.01103783119565312</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.93389433333333</v>
-      </c>
-      <c r="N23">
-        <v>50.801683</v>
-      </c>
-      <c r="O23">
-        <v>0.4835963760583382</v>
-      </c>
-      <c r="P23">
-        <v>0.4838336393146381</v>
-      </c>
-      <c r="Q23">
-        <v>1.103102100030555</v>
-      </c>
-      <c r="R23">
-        <v>9.927918900274999</v>
-      </c>
-      <c r="S23">
-        <v>0.003843334535303359</v>
-      </c>
-      <c r="T23">
-        <v>0.005340474037533492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.06514166666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.195425</v>
-      </c>
-      <c r="I24">
-        <v>0.007947401439666128</v>
-      </c>
-      <c r="J24">
-        <v>0.01103783119565312</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.1015266666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.30458</v>
-      </c>
-      <c r="O24">
-        <v>0.002899387884843277</v>
-      </c>
-      <c r="P24">
-        <v>0.002900810389735562</v>
-      </c>
-      <c r="Q24">
-        <v>0.006613616277777778</v>
-      </c>
-      <c r="R24">
-        <v>0.0595225465</v>
-      </c>
-      <c r="S24">
-        <v>2.304259945015399E-05</v>
-      </c>
-      <c r="T24">
-        <v>3.201865541249787E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.06514166666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.195425</v>
-      </c>
-      <c r="I25">
-        <v>0.007947401439666128</v>
-      </c>
-      <c r="J25">
-        <v>0.01103783119565312</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>17.929651</v>
-      </c>
-      <c r="N25">
-        <v>53.78895300000001</v>
-      </c>
-      <c r="O25">
-        <v>0.512033090375614</v>
-      </c>
-      <c r="P25">
-        <v>0.5122843053233891</v>
-      </c>
-      <c r="Q25">
-        <v>1.167967348891667</v>
-      </c>
-      <c r="R25">
-        <v>10.511706140025</v>
-      </c>
-      <c r="S25">
-        <v>0.004069332519607851</v>
-      </c>
-      <c r="T25">
-        <v>0.005654507686341992</v>
+        <v>0.0001391281913433562</v>
       </c>
     </row>
   </sheetData>
